--- a/Challenge 7/vulnerabilities.xlsx
+++ b/Challenge 7/vulnerabilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonja\Desktop\MACHINE-LEARNING\DATASETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DORRINGTON\Documents\MTIS 7102\CAT Challenges\Challenge 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607CBEE-21B6-431F-9969-91559726DFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A5C45-5EEC-4D72-8073-DDAA5F1FBD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{7DDEE6D4-5567-4C1C-BCE2-403C95E00020}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{7DDEE6D4-5567-4C1C-BCE2-403C95E00020}"/>
   </bookViews>
   <sheets>
     <sheet name="MOMBASA" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="178">
   <si>
     <t>Vulnerability</t>
   </si>
   <si>
-    <t>Host</t>
-  </si>
-  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>SSL Medium Strength Cipher Suites Supported (SWEET32)</t>
   </si>
   <si>
-    <t>192.168.8.112, 192.168.8.120, 192.168.8.173</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
@@ -62,18 +56,12 @@
     <t>SSL Certificate Signed Using Weak Hashing Algorithm</t>
   </si>
   <si>
-    <t>192.168.8.112, 192.168.8.173</t>
-  </si>
-  <si>
     <t>Replace the SSL certificate with one signed using a stronger hashing algorithm (e.g., SHA-256 or higher) to enhance security and prevent potential attacks. The SSL certificate on the listed host is signed using a weak hashing algorithm, making it susceptible to cryptographic attacks. Obtain a new SSL certificate signed using a stronger hashing algorithm from a trusted certificate authority (CA). Install the new SSL certificate on the server and update server configurations to use the new certificate for secure communication. Regularly monitor SSL certificate configurations and expiration dates to ensure continued security.</t>
   </si>
   <si>
     <t>Network Time Protocol Daemon (ntpd) monlist Command Enabled DoS</t>
   </si>
   <si>
-    <t>192.168.8.112, 192.168.8.150</t>
-  </si>
-  <si>
     <t>Disable the monlist command in the Network Time Protocol Daemon (ntpd) configuration to prevent potential denial-of-service (DoS) attacks. The monlist command can be abused by attackers to conduct amplification attacks, overwhelming network resources and causing service disruptions. Update the ntpd configuration to disable the monlist command and restrict access to trusted clients only. Implement firewall rules to block malicious traffic targeting the ntpd service and regularly monitor for suspicious activity.</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>ICMP Timestamp Request Remote Date Disclosure</t>
   </si>
   <si>
-    <t>192.168.9.1, 192.168.9.10, 192.168.9.11, 192.168.9.12, 192.168.9.2, 192.168.9.30, 192.168.9.51, 192.168.9.69</t>
-  </si>
-  <si>
     <t>MEDIUM</t>
   </si>
   <si>
@@ -155,24 +140,15 @@
     <t>Apply the necessary security patches or updates to mitigate the SSH Terrapin Prefix Truncation Weakness vulnerability (CVE-2023-48795). This vulnerability could allow remote attackers to conduct prefix truncation attacks, leading to unauthorized access or information disclosure. Refer to the vendor's security advisories and recommendations for patching or upgrading affected SSH implementations. Regularly update SSH software and configurations to address known vulnerabilities and ensure continued security.</t>
   </si>
   <si>
-    <t>Hosts Affected</t>
-  </si>
-  <si>
     <t>Recommendations</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>192.168.12.11, 192.168.12.20, 192.168.12.22, 192.168.12.71</t>
-  </si>
-  <si>
     <t>Replace self-signed certificates with trusted ones. Ensure SSL certificates have correct hostnames to prevent potential security risks.</t>
   </si>
   <si>
-    <t>192.168.12.11, 192.168.12.20, 192.168.12.71</t>
-  </si>
-  <si>
     <t>192.168.12.11</t>
   </si>
   <si>
@@ -185,18 +161,12 @@
     <t>SSL Certificate with Wrong Hostname</t>
   </si>
   <si>
-    <t>192.168.12.20, 192.168.12.71</t>
-  </si>
-  <si>
     <t>Ensure SSL certificates have correct hostnames to prevent potential security risks.</t>
   </si>
   <si>
     <t>IP Forwarding Enabled</t>
   </si>
   <si>
-    <t>192.168.12.1, 192.168.12.11</t>
-  </si>
-  <si>
     <t>Monitor and restrict IP forwarding where necessary to prevent unauthorized network access.</t>
   </si>
   <si>
@@ -254,24 +224,15 @@
     <t xml:space="preserve">Vulnerability </t>
   </si>
   <si>
-    <t>Affected Host</t>
-  </si>
-  <si>
     <t>Recommendation/solution</t>
   </si>
   <si>
-    <t>192.168.13.5, 192.168.13.50, 192.168.13.6</t>
-  </si>
-  <si>
     <t>Update SSL to disable Medium Strength Cipher Suites (SWEET32).</t>
   </si>
   <si>
     <t>Disable TLS Version 1.0 Protocol.</t>
   </si>
   <si>
-    <t>192.168.13.5, 192.168.13.6</t>
-  </si>
-  <si>
     <t>Migrate away from TLS Version 1.1 Protocol.</t>
   </si>
   <si>
@@ -287,18 +248,12 @@
     <t>SNMP Agent Default Community Name (public)</t>
   </si>
   <si>
-    <t>192.168.13.1, 192.168.13.50</t>
-  </si>
-  <si>
     <t>Change SNMP agent default community name (public).</t>
   </si>
   <si>
     <t>Obtain SSL certificates from trusted authorities.</t>
   </si>
   <si>
-    <t>192.168.13.2, 192.168.13.3</t>
-  </si>
-  <si>
     <t>Patch SSH for CVE-2023-48795.</t>
   </si>
   <si>
@@ -404,15 +359,9 @@
     <t>Disable SSLv3 for protection against POODLE attack.</t>
   </si>
   <si>
-    <t>192.168.5.40, 192.168.5.45, 192.168.5.62, 192.168.5.86, 192.168.5.87, 192.168.5.92, 192.168.5.96</t>
-  </si>
-  <si>
     <t>SMB (Server Message Block) signing helps prevent man-in-the-middle attacks by ensuring the integrity and authenticity of data transferred between SMB clients and servers. It is recommended to enable SMB signing on all listed hosts to enhance security and protect against unauthorized access or tampering of data during transmission.</t>
   </si>
   <si>
-    <t>192.168.5.2, 192.168.5.3</t>
-  </si>
-  <si>
     <t>The SSH servers on the listed hosts are vulnerable to a prefix truncation weakness (CVE-2023-48795), which could potentially be exploited by an attacker to execute arbitrary code or gain unauthorized access. It is advised to apply the latest security patches or updates provided by the vendor to remediate this vulnerability and mitigate the associated risks. Additionally, consider implementing strict access controls and monitoring mechanisms to detect and respond to any suspicious activities targeting the SSH service.</t>
   </si>
   <si>
@@ -425,18 +374,9 @@
     <t>SSLv3 Padding Oracle on Downgraded Legacy Encryption Vulnerability (POODLE)</t>
   </si>
   <si>
-    <t>192.168.5.</t>
-  </si>
-  <si>
     <t>The SSLv3 protocol is vulnerable to the POODLE attack, which can compromise the confidentiality of encrypted communications. It is recommended to disable SSLv3 and upgrade to TLS (Transport Layer Security) version 1.2 or higher to mitigate the risk of exploitation. Additionally, ensure that all systems and applications support modern encryption protocols to prevent potential security breaches.</t>
   </si>
   <si>
-    <t>192.168.6.238, 192.168.6.45</t>
-  </si>
-  <si>
-    <t>192.168.6.188, 192.168.6.238, 192.168.6.45, 192.168.6.51</t>
-  </si>
-  <si>
     <t>Obtain and install a valid SSL certificate from a trusted certificate authority (CA) to ensure secure communication between clients and servers. Self-signed certificates or certificates issued by untrusted CAs can expose users to security risks, such as man-in-the-middle attacks. Select a reputable CA and follow their guidelines for certificate issuance and installation. Regularly monitor certificate expiration dates and renew certificates before they expire to prevent service disruptions.</t>
   </si>
   <si>
@@ -449,9 +389,6 @@
     <t>Upgrade to a newer version of TLS to ensure better security and compliance with modern standards. TLS 1.1 is deprecated and may have vulnerabilities, including BEAST and POODLE. Transition to TLS 1.2 or higher, which offer improved security features and stronger encryption algorithms. Conduct thorough testing and validation to ensure compatibility with existing systems and applications before implementing the TLS upgrade.</t>
   </si>
   <si>
-    <t>192.168.6.188, 192.168.6.51</t>
-  </si>
-  <si>
     <t>Obtain and install a valid SSL certificate with the correct hostname to ensure secure communication between clients and servers. SSL certificates with incorrect hostnames may lead to security warnings and potential user distrust, as they do not match the expected server identity. Regularly review SSL certificate configurations and validate hostname settings to ensure continued security.</t>
   </si>
   <si>
@@ -464,9 +401,6 @@
     <t>Enable SMB signing to ensure the integrity and authenticity of data transferred between SMB clients and servers, thereby enhancing security and protecting against unauthorized access or tampering of data during transmission. SMB signing is a security feature that helps prevent man-in-the-middle attacks by digitally signing SMB packets exchanged between clients and servers. Enable SMB signing on the listed host to enhance security and protect sensitive data from interception or modification. Configure SMB clients and servers to require SMB signing for all SMB connections to ensure secure communication. Regularly monitor SMB signing configurations and network traffic for signs of exploitation or unauthorized access attempts.</t>
   </si>
   <si>
-    <t>Hosts</t>
-  </si>
-  <si>
     <t>Remote Desktop Protocol Server Man-in-the-Middle Weakness</t>
   </si>
   <si>
@@ -494,28 +428,145 @@
     <t>Configure Terminal Services (Remote Desktop Services) to use encryption algorithms and protocols compliant with Federal Information Processing Standards (FIPS-140) to enhance the security of remote desktop connections. Implement FIPS-compliant encryption standards and secure configurations to protect sensitive data from unauthorized access and interception. Regularly review and update Terminal Services settings to maintain compliance with FIPS-140 requirements and security best practices.</t>
   </si>
   <si>
-    <t>192.168.14.30, 192.168.14.31, 192.168.14.35, 192.168.15.149, 192.168.15.182, 192.168.15.195, 192.168.15.204, 192.168.15.223, 192.168.15.225, 192.168.15.229, 192.168.15.230, 192.168.15.241, 192.168.15.242</t>
-  </si>
-  <si>
     <t>Configure network devices and systems to block or restrict ICMP timestamp requests from external sources to prevent potential information disclosure. Implement firewall rules or access control lists (ACLs) to filter ICMP traffic and restrict access to sensitive systems. Regularly monitor network traffic for unauthorized or unusual ICMP activity and investigate any suspicious requests or responses.</t>
   </si>
   <si>
-    <t>192.168.15.195, 192.168.15.204</t>
-  </si>
-  <si>
     <t>Deploy a trusted SSL/TLS certificate issued by a reputable certificate authority (CA) to secure communication channels and prevent potential man-in-the-middle (MITM) attacks. Regularly monitor SSL/TLS certificate expiration dates and renew certificates before they expire to maintain secure connections. Conduct periodic vulnerability scans and SSL/TLS audits to identify and remediate certificate-related vulnerabilities.</t>
   </si>
   <si>
     <t>Replace self-signed SSL/TLS certificates with certificates issued by trusted certificate authorities (CAs) to establish secure communication channels and prevent potential man-in-the-middle (MITM) attacks. Implement certificate management procedures to ensure proper issuance, renewal, and revocation of SSL/TLS certificates. Regularly audit SSL/TLS configurations and certificates to identify and remediate security weaknesses.</t>
   </si>
   <si>
-    <t>192.168.14.35, 192.168.14.83</t>
-  </si>
-  <si>
     <t>Enable SMB signing on file servers and domain controllers to ensure data integrity and prevent man-in-the-middle (MITM) attacks. Implement Group Policy settings or registry modifications to enforce SMB signing requirements across the network. Regularly monitor SMB traffic and audit SMB configurations to verify compliance with security policies and standards.</t>
   </si>
   <si>
     <t>Upgrade TLS protocol versions to newer and more secure implementations (e.g., TLS 1.2 or higher) to mitigate vulnerabilities associated with deprecated or insecure protocols. Configure web servers, applications, and network devices to support modern TLS versions and disable support for TLS 1.0 to prevent potential attacks and security breaches. Regularly review and update TLS configurations to maintain compliance with security best practices.</t>
+  </si>
+  <si>
+    <t>192.168.8.112</t>
+  </si>
+  <si>
+    <t>192.168.8.120</t>
+  </si>
+  <si>
+    <t>192.168.8.150</t>
+  </si>
+  <si>
+    <t>192.168.9.1</t>
+  </si>
+  <si>
+    <t>192.168.9.10</t>
+  </si>
+  <si>
+    <t>192.168.9.12</t>
+  </si>
+  <si>
+    <t>192.168.9.30</t>
+  </si>
+  <si>
+    <t>192.168.9.51</t>
+  </si>
+  <si>
+    <t>192.168.9.69</t>
+  </si>
+  <si>
+    <t>192.168.14.30</t>
+  </si>
+  <si>
+    <t>192.168.14.31</t>
+  </si>
+  <si>
+    <t>192.168.14.35</t>
+  </si>
+  <si>
+    <t>192.168.15.149</t>
+  </si>
+  <si>
+    <t>192.168.15.182</t>
+  </si>
+  <si>
+    <t>192.168.15.195</t>
+  </si>
+  <si>
+    <t>192.168.15.204</t>
+  </si>
+  <si>
+    <t>192.168.15.223</t>
+  </si>
+  <si>
+    <t>192.168.15.225</t>
+  </si>
+  <si>
+    <t>192.168.15.229</t>
+  </si>
+  <si>
+    <t>192.168.15.230</t>
+  </si>
+  <si>
+    <t>192.168.15.241</t>
+  </si>
+  <si>
+    <t>192.168.15.242</t>
+  </si>
+  <si>
+    <t>192.168.12.20</t>
+  </si>
+  <si>
+    <t>192.168.12.22</t>
+  </si>
+  <si>
+    <t>192.168.12.71</t>
+  </si>
+  <si>
+    <t>192.168.13.5</t>
+  </si>
+  <si>
+    <t>192.168.13.6</t>
+  </si>
+  <si>
+    <t>192.168.13.2</t>
+  </si>
+  <si>
+    <t>192.168.13.3</t>
+  </si>
+  <si>
+    <t>192.168.6.238</t>
+  </si>
+  <si>
+    <t>192.168.6.45</t>
+  </si>
+  <si>
+    <t>192.168.6.51</t>
+  </si>
+  <si>
+    <t>192.168.5.2</t>
+  </si>
+  <si>
+    <t>192.168.5.3</t>
+  </si>
+  <si>
+    <t>192.168.5.40</t>
+  </si>
+  <si>
+    <t>192.168.5.45</t>
+  </si>
+  <si>
+    <t>192.168.5.62</t>
+  </si>
+  <si>
+    <t>192.168.5.86</t>
+  </si>
+  <si>
+    <t>192.168.5.87</t>
+  </si>
+  <si>
+    <t>192.168.5.92</t>
+  </si>
+  <si>
+    <t>192.168.5.96</t>
+  </si>
+  <si>
+    <t>192.168.5.56</t>
   </si>
 </sst>
 </file>
@@ -876,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58FD89E-C062-46C6-8DC1-D98234B1E1A2}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,111 +946,195 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1009,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B08D30-EAA0-4B77-80B6-6AE563D5C7A1}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,97 +1163,195 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1128,17 +1361,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6069D45-C682-4E0E-98FD-63FA27281EA0}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="177.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1147,167 +1380,433 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" t="s">
-        <v>160</v>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1317,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717A1439-2AFF-4AFD-A8BA-523620E292D8}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,111 +1835,195 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1450,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109CB813-4BD4-4C9A-8274-6DAD90E3285E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,41 +2052,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1511,83 +2094,181 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1599,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FF410E-28CB-44CE-A97C-663487BF9D65}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1616,55 +2297,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1674,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9148989-F436-4D8C-A3C0-5B91D9302306}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,366 +2371,534 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2059,10 +2908,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51F427-28C0-4AF2-8CBD-F3055621A836}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,69 +2926,167 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2149,10 +3096,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762804C8-67FE-4CD6-9378-F820BCAF954C}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2167,55 +3114,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2223,69 +3170,223 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>142</v>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
